--- a/probability1a.xlsx
+++ b/probability1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>m</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>P( E | F )</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>x = 100</t>
@@ -172,8 +169,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,13 +481,16 @@
   <dimension ref="B1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
@@ -498,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -510,16 +513,16 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -533,25 +536,25 @@
         <v>1679616</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -565,25 +568,25 @@
         <v>46656</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -597,25 +600,25 @@
         <v>1024</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -629,25 +632,25 @@
         <v>1048576</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -661,25 +664,25 @@
         <v>59049</v>
       </c>
       <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -693,25 +696,25 @@
         <v>1024</v>
       </c>
       <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
